--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/10/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>9.020300000000001</v>
+        <v>8.919299999999994</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -550,13 +550,13 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.861400000000002</v>
+        <v>5.288900000000003</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.363900000000001</v>
+        <v>-7.474000000000002</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.475599999999991</v>
+        <v>-8.695699999999995</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.962299999999999</v>
+        <v>5.484299999999998</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.20129999999999</v>
+        <v>15.9068</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.4302</v>
+        <v>16.5604</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.5924</v>
+        <v>-8.581699999999998</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,7 +811,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.963800000000005</v>
+        <v>-7.865200000000004</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.173199999999995</v>
+        <v>-7.211099999999996</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.882800000000002</v>
+        <v>5.856600000000002</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.039500000000003</v>
+        <v>5.014500000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.217299999999995</v>
+        <v>7.443799999999998</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.951499999999998</v>
+        <v>-7.980099999999998</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>15.96880000000001</v>
+        <v>15.98640000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>8.686900000000003</v>
+        <v>8.874900000000004</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.3185</v>
+        <v>-8.3308</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.756699999999999</v>
+        <v>-8.013799999999998</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.086</v>
+        <v>17.2071</v>
       </c>
     </row>
     <row r="47">
@@ -1287,10 +1287,10 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.821000000000002</v>
+        <v>-8.002099999999995</v>
       </c>
       <c r="E50" t="n">
-        <v>16.48469999999999</v>
+        <v>16.85799999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.351500000000001</v>
+        <v>-7.528699999999994</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>4.960800000000001</v>
+        <v>5.375799999999997</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.015999999999996</v>
+        <v>4.945799999999994</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1553,13 +1553,13 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.4108</v>
+        <v>5.3784</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.648999999999997</v>
+        <v>-7.635400000000001</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.642400000000004</v>
+        <v>-6.590000000000003</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-6.175800000000004</v>
+        <v>-6.271100000000005</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.7852</v>
+        <v>-8.912400000000003</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.588300000000007</v>
+        <v>-6.443300000000002</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.93310000000002</v>
+        <v>18.05830000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2086,10 +2086,10 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.79329999999999</v>
+        <v>-7.988499999999997</v>
       </c>
       <c r="E97" t="n">
-        <v>16.57579999999999</v>
+        <v>16.7355</v>
       </c>
     </row>
     <row r="98">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.685299999999999</v>
+        <v>5.477999999999998</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
